--- a/docs/mcode/oncocore-CancerHistologicGrade.xlsx
+++ b/docs/mcode/oncocore-CancerHistologicGrade.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="421">
   <si>
     <t>Path</t>
   </si>
@@ -204,19 +204,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
   </si>
   <si>
     <t>extensions
@@ -230,193 +309,10 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>Observation:argoprofile.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -446,9 +342,6 @@
   </si>
   <si>
     <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t>Observation:argoprofile.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier {[]} {[]}
@@ -562,6 +455,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>Codes for high level observation categories .</t>
   </si>
   <si>
@@ -593,6 +489,9 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>LOINC codes</t>
   </si>
   <si>
@@ -611,10 +510,26 @@
     <t>Observation.code.id</t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.code.extension</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -870,6 +785,10 @@
     <t>Observation.issued</t>
   </si>
   <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Date/Time this was made available</t>
   </si>
   <si>
@@ -889,9 +808,6 @@
   </si>
   <si>
     <t>Observation.performer</t>
-  </si>
-  <si>
-    <t>Observation:argoprofile.performer</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
@@ -907,10 +823,6 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
-    <t>profile:target.reference}
-profile:target.reference}profile:target.reference}</t>
-  </si>
-  <si>
     <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
   </si>
   <si>
@@ -920,45 +832,6 @@
     <t>who.actor</t>
   </si>
   <si>
-    <t>shr-core-ResponsibleObserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
-</t>
-  </si>
-  <si>
-    <t>ResponsibleObserver</t>
-  </si>
-  <si>
-    <t>Person directly responsible for carrying out the test.</t>
-  </si>
-  <si>
-    <t>shr-core-PerformingLaboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
-</t>
-  </si>
-  <si>
-    <t>PerformingLaboratory</t>
-  </si>
-  <si>
-    <t>Organization responsible for carrying out the test.</t>
-  </si>
-  <si>
-    <t>shr-core-PerformingOrganizationMedicalDirector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
-</t>
-  </si>
-  <si>
-    <t>PerformingOrganizationMedicalDirector</t>
-  </si>
-  <si>
-    <t>Director of the laboratory performing the test.</t>
-  </si>
-  <si>
     <t>Observation.valueCodeableConcept</t>
   </si>
   <si>
@@ -968,7 +841,7 @@
     <t>If codeableConcept, valueCodeableConcept *SHOULD*  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If Quantity, valueQuantity units *SHALL* be selected from [UCUM](http://unitsofmeasure.org).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/CancerHistologicGradeVS</t>
+    <t>http://hl7.org/fhir/us/mcode/oncocore/vs/CancerHistologicGradeVS</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -1063,25 +936,13 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
   </si>
   <si>
     <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.text</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -1616,7 +1477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM88"/>
+  <dimension ref="A1:AM74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1626,7 +1487,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.1953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1648,10 +1509,10 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.39453125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.58984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="44.61328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.83203125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -2122,21 +1983,23 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -2158,7 +2021,7 @@
         <v>42</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
         <v>42</v>
@@ -2184,11 +2047,15 @@
       <c r="AD5" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE5" s="2"/>
+      <c r="AE5" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG5" s="2"/>
+      <c r="AG5" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH5" t="s" s="2">
         <v>42</v>
       </c>
@@ -2199,7 +2066,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -2207,18 +2074,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2262,16 +2129,16 @@
         <v>42</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -2288,11 +2155,15 @@
       <c r="AD6" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE6" s="2"/>
+      <c r="AE6" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG6" s="2"/>
+      <c r="AG6" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH6" t="s" s="2">
         <v>42</v>
       </c>
@@ -2303,7 +2174,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -2311,11 +2182,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2331,19 +2202,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2366,7 +2237,7 @@
         <v>42</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
         <v>42</v>
@@ -2392,13 +2263,17 @@
       <c r="AD7" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2407,7 +2282,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2415,18 +2290,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2435,19 +2310,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2470,7 +2345,7 @@
         <v>42</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>42</v>
@@ -2496,11 +2371,15 @@
       <c r="AD8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>42</v>
       </c>
@@ -2511,7 +2390,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2519,11 +2398,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2539,19 +2418,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2574,7 +2453,7 @@
         <v>42</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>42</v>
@@ -2589,22 +2468,24 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>42</v>
       </c>
@@ -2615,7 +2496,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2623,9 +2504,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2634,7 +2517,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>42</v>
@@ -2643,20 +2526,16 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2678,16 +2557,16 @@
         <v>42</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2704,11 +2583,15 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2727,11 +2610,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2744,22 +2627,22 @@
         <v>42</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2782,13 +2665,13 @@
         <v>42</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>42</v>
@@ -2808,11 +2691,15 @@
       <c r="AD11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2823,7 +2710,7 @@
         <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>42</v>
@@ -2831,7 +2718,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2842,30 +2729,30 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2901,25 +2788,23 @@
         <v>42</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>42</v>
@@ -2928,20 +2813,22 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2962,17 +2849,15 @@
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
@@ -2997,13 +2882,13 @@
         <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -3027,7 +2912,7 @@
         <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>42</v>
@@ -3036,22 +2921,24 @@
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="C14" t="s" s="2">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3070,17 +2957,15 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -3129,44 +3014,46 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>42</v>
@@ -3178,17 +3065,15 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>124</v>
-      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -3237,7 +3122,7 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -3252,37 +3137,35 @@
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>42</v>
@@ -3291,15 +3174,15 @@
         <v>67</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>42</v>
       </c>
@@ -3323,71 +3206,69 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AB16" s="2"/>
-      <c r="AC16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AE16" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>42</v>
-      </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s" s="2">
         <v>131</v>
       </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>42</v>
@@ -3398,11 +3279,15 @@
       <c r="J17" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3412,7 +3297,7 @@
         <v>42</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>42</v>
@@ -3427,13 +3312,13 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
@@ -3451,13 +3336,13 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>42</v>
@@ -3469,49 +3354,51 @@
         <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>42</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3535,13 +3422,13 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>42</v>
@@ -3559,13 +3446,13 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>42</v>
@@ -3574,22 +3461,20 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>42</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3598,7 +3483,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3610,18 +3495,16 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3642,7 +3525,7 @@
         <v>42</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
         <v>42</v>
@@ -3657,24 +3540,22 @@
         <v>42</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AE19" s="2"/>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG19" s="2"/>
       <c r="AH19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3682,31 +3563,29 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>145</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
@@ -3718,15 +3597,17 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3748,7 +3629,7 @@
         <v>42</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>42</v>
@@ -3774,15 +3655,11 @@
       <c r="AD20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE20" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3790,31 +3667,29 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>145</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3823,19 +3698,23 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3856,7 +3735,7 @@
         <v>42</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
         <v>42</v>
@@ -3871,26 +3750,20 @@
         <v>42</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3898,28 +3771,28 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>145</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>51</v>
@@ -3931,16 +3804,16 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3964,7 +3837,7 @@
         <v>42</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
         <v>42</v>
@@ -3990,15 +3863,11 @@
       <c r="AD22" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE22" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
         <v>42</v>
       </c>
@@ -4006,18 +3875,18 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>145</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4025,33 +3894,31 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
@@ -4072,14 +3939,16 @@
         <v>42</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y23" t="s" s="2">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>42</v>
@@ -4096,15 +3965,11 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -4112,32 +3977,32 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>42</v>
@@ -4146,16 +4011,16 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4166,7 +4031,7 @@
         <v>42</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>42</v>
@@ -4178,102 +4043,98 @@
         <v>42</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE24" s="2"/>
+      <c r="AF24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG24" s="2"/>
+      <c r="AH24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>42</v>
@@ -4288,16 +4149,16 @@
         <v>42</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4314,15 +4175,11 @@
       <c r="AD25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE25" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG25" s="2"/>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4330,18 +4187,18 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>186</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4361,18 +4218,20 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4432,10 +4291,10 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4447,14 +4306,14 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4463,27 +4322,27 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>42</v>
@@ -4536,10 +4395,10 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4547,7 +4406,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4555,10 +4414,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4570,19 +4429,17 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4619,14 +4476,16 @@
         <v>42</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AE28" s="2"/>
       <c r="AF28" t="s" s="2">
@@ -4640,10 +4499,10 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4651,17 +4510,15 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
@@ -4676,16 +4533,20 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4744,10 +4605,10 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4755,7 +4616,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4775,19 +4636,23 @@
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4846,32 +4711,32 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>42</v>
@@ -4880,18 +4745,20 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4912,7 +4779,7 @@
         <v>42</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
         <v>42</v>
@@ -4938,11 +4805,15 @@
       <c r="AD31" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE31" s="2"/>
+      <c r="AE31" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG31" s="2"/>
+      <c r="AG31" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4950,18 +4821,18 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4981,29 +4852,27 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>42</v>
@@ -5018,7 +4887,7 @@
         <v>42</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>42</v>
@@ -5044,11 +4913,15 @@
       <c r="AD32" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE32" s="2"/>
+      <c r="AE32" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG32" s="2"/>
+      <c r="AG32" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
       </c>
@@ -5056,18 +4929,18 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5081,27 +4954,29 @@
         <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5122,7 +4997,7 @@
         <v>42</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>42</v>
@@ -5148,30 +5023,34 @@
       <c r="AD33" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE33" s="2"/>
+      <c r="AE33" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG33" s="2"/>
+      <c r="AG33" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5194,24 +5073,24 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>42</v>
@@ -5226,7 +5105,7 @@
         <v>42</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
         <v>42</v>
@@ -5252,11 +5131,15 @@
       <c r="AD34" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE34" s="2"/>
+      <c r="AE34" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG34" s="2"/>
+      <c r="AG34" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5264,18 +5147,18 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>42</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5286,7 +5169,7 @@
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5298,17 +5181,17 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5330,7 +5213,7 @@
         <v>42</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>42</v>
@@ -5356,11 +5239,15 @@
       <c r="AD35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE35" s="2"/>
+      <c r="AE35" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG35" s="2"/>
+      <c r="AG35" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5368,18 +5255,18 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5399,23 +5286,19 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5439,13 +5322,11 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5462,11 +5343,15 @@
       <c r="AD36" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE36" s="2"/>
+      <c r="AE36" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG36" s="2"/>
+      <c r="AG36" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5474,18 +5359,18 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5499,28 +5384,28 @@
         <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5542,16 +5427,14 @@
         <v>42</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5568,44 +5451,48 @@
       <c r="AD37" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE37" s="2"/>
+      <c r="AE37" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG37" s="2"/>
+      <c r="AG37" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH37" t="s" s="2">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>42</v>
@@ -5614,19 +5501,17 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5651,13 +5536,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5675,7 +5560,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5690,18 +5575,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>252</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5724,17 +5609,17 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5783,7 +5668,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5798,18 +5683,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>260</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5820,10 +5705,10 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>42</v>
@@ -5832,19 +5717,19 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5869,13 +5754,11 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>42</v>
+        <v>293</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -5893,7 +5776,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5905,21 +5788,21 @@
         <v>42</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>267</v>
+        <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>270</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5939,21 +5822,23 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5977,13 +5862,13 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -6001,7 +5886,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -6016,22 +5901,20 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>277</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>42</v>
       </c>
@@ -6040,7 +5923,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -6049,21 +5932,21 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -6099,23 +5982,25 @@
         <v>42</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AB42" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
@@ -6124,22 +6009,20 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6148,7 +6031,7 @@
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -6157,18 +6040,20 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6217,13 +6102,13 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>42</v>
@@ -6232,22 +6117,20 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6256,7 +6139,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6265,19 +6148,23 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6325,7 +6212,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6337,25 +6224,23 @@
         <v>42</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6373,16 +6258,16 @@
         <v>42</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>297</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>298</v>
+        <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>299</v>
+        <v>156</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6433,13 +6318,13 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>42</v>
@@ -6448,29 +6333,29 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>286</v>
+        <v>157</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6482,15 +6367,17 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>301</v>
+        <v>92</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6512,14 +6399,16 @@
         <v>42</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>42</v>
@@ -6537,13 +6426,13 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>42</v>
@@ -6555,51 +6444,49 @@
         <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="I47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>306</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6623,11 +6510,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6645,25 +6534,25 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>312</v>
+        <v>88</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6671,11 +6560,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6694,18 +6583,16 @@
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6729,13 +6616,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>318</v>
+        <v>42</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>42</v>
@@ -6753,7 +6640,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6762,16 +6649,16 @@
         <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6779,7 +6666,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6802,18 +6689,16 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>210</v>
+        <v>334</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>325</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6861,7 +6746,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6870,16 +6755,16 @@
         <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6887,7 +6772,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6898,7 +6783,7 @@
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6910,19 +6795,19 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -6947,11 +6832,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="Y50" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
@@ -6969,7 +6856,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6984,10 +6871,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6995,7 +6882,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7018,16 +6905,18 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>62</v>
+        <v>354</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>63</v>
+        <v>355</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -7048,7 +6937,7 @@
         <v>42</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
         <v>42</v>
@@ -7074,11 +6963,15 @@
       <c r="AD51" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE51" s="2"/>
+      <c r="AE51" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG51" s="2"/>
+      <c r="AG51" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH51" t="s" s="2">
         <v>42</v>
       </c>
@@ -7089,7 +6982,7 @@
         <v>42</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>64</v>
+        <v>357</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -7097,18 +6990,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -7120,17 +7013,15 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7152,7 +7043,7 @@
         <v>42</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
         <v>42</v>
@@ -7178,11 +7069,15 @@
       <c r="AD52" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE52" s="2"/>
+      <c r="AE52" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG52" s="2"/>
+      <c r="AG52" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7190,10 +7085,10 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>64</v>
+        <v>361</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -7201,7 +7096,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7212,7 +7107,7 @@
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -7224,19 +7119,19 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>320</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>190</v>
+        <v>363</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>191</v>
+        <v>364</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>192</v>
+        <v>365</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>193</v>
+        <v>366</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7258,7 +7153,7 @@
         <v>42</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
         <v>42</v>
@@ -7284,11 +7179,15 @@
       <c r="AD53" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE53" s="2"/>
+      <c r="AE53" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG53" s="2"/>
+      <c r="AG53" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7296,10 +7195,10 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>195</v>
+        <v>367</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>196</v>
+        <v>368</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7307,7 +7206,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7327,23 +7226,19 @@
         <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7364,7 +7259,7 @@
         <v>42</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
         <v>42</v>
@@ -7390,11 +7285,15 @@
       <c r="AD54" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE54" s="2"/>
+      <c r="AE54" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG54" s="2"/>
+      <c r="AG54" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7402,10 +7301,10 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7413,18 +7312,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7436,20 +7335,18 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>342</v>
+        <v>92</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>343</v>
+        <v>159</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7473,13 +7370,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>347</v>
+        <v>42</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>42</v>
@@ -7497,13 +7394,13 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>42</v>
@@ -7512,10 +7409,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>349</v>
+        <v>157</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7523,39 +7420,39 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>351</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>352</v>
+        <v>101</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>354</v>
+        <v>94</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7605,13 +7502,13 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>42</v>
@@ -7620,10 +7517,10 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>356</v>
+        <v>88</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7631,7 +7528,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7642,7 +7539,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7654,24 +7551,26 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>358</v>
+        <v>67</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>42</v>
+        <v>377</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>42</v>
@@ -7689,13 +7588,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>42</v>
+        <v>378</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -7713,7 +7612,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7728,10 +7627,10 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>362</v>
+        <v>88</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7739,7 +7638,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7747,10 +7646,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
@@ -7762,20 +7661,16 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -7823,25 +7718,25 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>371</v>
+        <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7849,7 +7744,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7860,7 +7755,7 @@
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
@@ -7869,19 +7764,23 @@
         <v>42</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>53</v>
+        <v>320</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>62</v>
+        <v>387</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7929,13 +7828,13 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>42</v>
@@ -7944,10 +7843,10 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>42</v>
+        <v>390</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>64</v>
+        <v>391</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7955,18 +7854,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
@@ -7978,17 +7877,15 @@
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -8037,13 +7934,13 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>42</v>
@@ -8055,7 +7952,7 @@
         <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -8063,11 +7960,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>376</v>
+        <v>90</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8080,22 +7977,22 @@
         <v>42</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>377</v>
+        <v>159</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8145,7 +8042,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -8163,7 +8060,7 @@
         <v>42</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8171,38 +8068,40 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>379</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>380</v>
+        <v>101</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8251,25 +8150,25 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>382</v>
+        <v>42</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>383</v>
+        <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>384</v>
+        <v>88</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8277,7 +8176,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8285,7 +8184,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>51</v>
@@ -8297,19 +8196,21 @@
         <v>42</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>379</v>
+        <v>132</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8333,13 +8234,13 @@
         <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>42</v>
+        <v>398</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8357,33 +8258,33 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>383</v>
+        <v>151</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>388</v>
+        <v>152</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>42</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8403,22 +8304,22 @@
         <v>42</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>167</v>
+        <v>401</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8443,13 +8344,13 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>394</v>
+        <v>42</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -8467,7 +8368,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8482,10 +8383,10 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8493,7 +8394,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8516,17 +8417,19 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>398</v>
+        <v>132</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>401</v>
+        <v>268</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8551,13 +8454,11 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
@@ -8575,7 +8476,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8584,16 +8485,16 @@
         <v>51</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>402</v>
+        <v>271</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8601,7 +8502,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8612,7 +8513,7 @@
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
@@ -8624,16 +8525,20 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8654,7 +8559,7 @@
         <v>42</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W66" t="s" s="2">
         <v>42</v>
@@ -8681,13 +8586,13 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>42</v>
@@ -8696,10 +8601,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>406</v>
+        <v>327</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8707,7 +8612,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8718,7 +8623,7 @@
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
@@ -8727,23 +8632,19 @@
         <v>42</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>365</v>
+        <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>408</v>
+        <v>155</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8764,7 +8665,7 @@
         <v>42</v>
       </c>
       <c r="V67" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W67" t="s" s="2">
         <v>42</v>
@@ -8790,15 +8691,11 @@
       <c r="AD67" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE67" t="s" s="2">
-        <v>407</v>
-      </c>
+      <c r="AE67" s="2"/>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG67" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG67" s="2"/>
       <c r="AH67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8806,10 +8703,10 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>412</v>
+        <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>413</v>
+        <v>157</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8821,14 +8718,14 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -8840,15 +8737,17 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -8870,7 +8769,7 @@
         <v>42</v>
       </c>
       <c r="V68" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W68" t="s" s="2">
         <v>42</v>
@@ -8896,15 +8795,11 @@
       <c r="AD68" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE68" t="s" s="2">
-        <v>414</v>
-      </c>
+      <c r="AE68" s="2"/>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG68" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8915,7 +8810,7 @@
         <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8927,7 +8822,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>66</v>
+        <v>331</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8940,22 +8835,22 @@
         <v>42</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>69</v>
+        <v>332</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -8978,7 +8873,7 @@
         <v>42</v>
       </c>
       <c r="V69" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W69" t="s" s="2">
         <v>42</v>
@@ -9004,15 +8899,11 @@
       <c r="AD69" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE69" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="AE69" s="2"/>
       <c r="AF69" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG69" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG69" s="2"/>
       <c r="AH69" t="s" s="2">
         <v>42</v>
       </c>
@@ -9023,7 +8914,7 @@
         <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -9035,36 +8926,34 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>376</v>
+        <v>42</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>135</v>
+        <v>335</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -9086,7 +8975,7 @@
         <v>42</v>
       </c>
       <c r="V70" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W70" t="s" s="2">
         <v>42</v>
@@ -9112,26 +9001,22 @@
       <c r="AD70" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE70" t="s" s="2">
-        <v>416</v>
-      </c>
+      <c r="AE70" s="2"/>
       <c r="AF70" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG70" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG70" s="2"/>
       <c r="AH70" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>125</v>
+        <v>339</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -9162,26 +9047,22 @@
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>104</v>
+        <v>334</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>422</v>
+        <v>42</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>42</v>
@@ -9196,16 +9077,16 @@
         <v>42</v>
       </c>
       <c r="V71" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>423</v>
+        <v>42</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>424</v>
+        <v>42</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>42</v>
@@ -9222,26 +9103,22 @@
       <c r="AD71" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE71" t="s" s="2">
-        <v>417</v>
-      </c>
+      <c r="AE71" s="2"/>
       <c r="AF71" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG71" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG71" s="2"/>
       <c r="AH71" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>125</v>
+        <v>338</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>425</v>
+        <v>343</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>42</v>
@@ -9249,7 +9126,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9257,7 +9134,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>51</v>
@@ -9272,16 +9149,20 @@
         <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>427</v>
+        <v>132</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>428</v>
+        <v>345</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>42</v>
       </c>
@@ -9302,16 +9183,16 @@
         <v>42</v>
       </c>
       <c r="V72" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>42</v>
@@ -9328,15 +9209,11 @@
       <c r="AD72" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE72" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="AE72" s="2"/>
       <c r="AF72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG72" s="2"/>
       <c r="AH72" t="s" s="2">
         <v>42</v>
       </c>
@@ -9344,10 +9221,10 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9355,7 +9232,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9366,7 +9243,7 @@
         <v>40</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>42</v>
@@ -9375,22 +9252,20 @@
         <v>42</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>432</v>
+        <v>354</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>434</v>
+        <v>356</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
@@ -9412,7 +9287,7 @@
         <v>42</v>
       </c>
       <c r="V73" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W73" t="s" s="2">
         <v>42</v>
@@ -9438,15 +9313,11 @@
       <c r="AD73" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE73" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="AE73" s="2"/>
       <c r="AF73" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG73" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG73" s="2"/>
       <c r="AH73" t="s" s="2">
         <v>42</v>
       </c>
@@ -9454,10 +9325,10 @@
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>435</v>
+        <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>436</v>
+        <v>357</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -9465,7 +9336,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9488,13 +9359,13 @@
         <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>62</v>
+        <v>359</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>63</v>
+        <v>360</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9518,7 +9389,7 @@
         <v>42</v>
       </c>
       <c r="V74" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W74" t="s" s="2">
         <v>42</v>
@@ -9544,15 +9415,11 @@
       <c r="AD74" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE74" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="AE74" s="2"/>
       <c r="AF74" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG74" s="2"/>
       <c r="AH74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9560,1495 +9427,17 @@
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>64</v>
+        <v>361</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X79" s="2"/>
-      <c r="Y79" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE81" s="2"/>
-      <c r="AF81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG81" s="2"/>
-      <c r="AH81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE82" s="2"/>
-      <c r="AF82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG82" s="2"/>
-      <c r="AH82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE83" s="2"/>
-      <c r="AF83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG83" s="2"/>
-      <c r="AH83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE84" s="2"/>
-      <c r="AF84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG84" s="2"/>
-      <c r="AH84" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE85" s="2"/>
-      <c r="AF85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG85" s="2"/>
-      <c r="AH85" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE86" s="2"/>
-      <c r="AF86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG86" s="2"/>
-      <c r="AH86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE87" s="2"/>
-      <c r="AF87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG87" s="2"/>
-      <c r="AH87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE88" s="2"/>
-      <c r="AF88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG88" s="2"/>
-      <c r="AH88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AL88" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL88">
+  <autoFilter ref="A1:AL74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11058,7 +9447,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
